--- a/contratos/contratos-7-2009.xlsx
+++ b/contratos/contratos-7-2009.xlsx
@@ -469,7 +469,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>JUSID NICOLAS</t>
@@ -556,7 +556,7 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>ALBA OMAR MARIA</t>
@@ -874,352 +874,352 @@
     <t>142</t>
   </si>
   <si>
-    <t>359,00</t>
-  </si>
-  <si>
-    <t>1.532,00</t>
-  </si>
-  <si>
-    <t>715,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>1.019,56</t>
-  </si>
-  <si>
-    <t>3.485,51</t>
-  </si>
-  <si>
-    <t>14.178,75</t>
-  </si>
-  <si>
-    <t>107.511,21</t>
-  </si>
-  <si>
-    <t>8.118,50</t>
-  </si>
-  <si>
-    <t>4.884,77</t>
-  </si>
-  <si>
-    <t>1.807,15</t>
-  </si>
-  <si>
-    <t>1.841,25</t>
-  </si>
-  <si>
-    <t>6.772,40</t>
-  </si>
-  <si>
-    <t>4.514,13</t>
-  </si>
-  <si>
-    <t>88,00</t>
-  </si>
-  <si>
-    <t>206,00</t>
-  </si>
-  <si>
-    <t>7.039,50</t>
-  </si>
-  <si>
-    <t>1.365,00</t>
-  </si>
-  <si>
-    <t>376,00</t>
-  </si>
-  <si>
-    <t>189,59</t>
-  </si>
-  <si>
-    <t>33,50</t>
-  </si>
-  <si>
-    <t>1.883,30</t>
-  </si>
-  <si>
-    <t>5,70</t>
-  </si>
-  <si>
-    <t>225,14</t>
-  </si>
-  <si>
-    <t>57,37</t>
-  </si>
-  <si>
-    <t>19.015,76</t>
-  </si>
-  <si>
-    <t>128,56</t>
-  </si>
-  <si>
-    <t>12,00</t>
-  </si>
-  <si>
-    <t>15,00</t>
-  </si>
-  <si>
-    <t>2.296,92</t>
-  </si>
-  <si>
-    <t>1.486,44</t>
-  </si>
-  <si>
-    <t>4.712,00</t>
-  </si>
-  <si>
-    <t>2,10</t>
-  </si>
-  <si>
-    <t>44,32</t>
-  </si>
-  <si>
-    <t>9.842,23</t>
-  </si>
-  <si>
-    <t>376,44</t>
-  </si>
-  <si>
-    <t>56,00</t>
-  </si>
-  <si>
-    <t>2.961,40</t>
-  </si>
-  <si>
-    <t>21,20</t>
-  </si>
-  <si>
-    <t>592,98</t>
-  </si>
-  <si>
-    <t>4.275,31</t>
-  </si>
-  <si>
-    <t>640,00</t>
-  </si>
-  <si>
-    <t>3.815,00</t>
-  </si>
-  <si>
-    <t>1.650,00</t>
-  </si>
-  <si>
-    <t>3.374,00</t>
-  </si>
-  <si>
-    <t>236,00</t>
-  </si>
-  <si>
-    <t>5.765,00</t>
-  </si>
-  <si>
-    <t>116,40</t>
-  </si>
-  <si>
-    <t>1.234,00</t>
-  </si>
-  <si>
-    <t>835,00</t>
-  </si>
-  <si>
-    <t>9.485,80</t>
-  </si>
-  <si>
-    <t>20.332,00</t>
-  </si>
-  <si>
-    <t>33.496,48</t>
-  </si>
-  <si>
-    <t>10.225,00</t>
-  </si>
-  <si>
-    <t>1.147,10</t>
-  </si>
-  <si>
-    <t>622,00</t>
-  </si>
-  <si>
-    <t>5.442,44</t>
-  </si>
-  <si>
-    <t>740,00</t>
-  </si>
-  <si>
-    <t>748,00</t>
-  </si>
-  <si>
-    <t>1.832,96</t>
-  </si>
-  <si>
-    <t>142,50</t>
-  </si>
-  <si>
-    <t>753,00</t>
-  </si>
-  <si>
-    <t>217,20</t>
-  </si>
-  <si>
-    <t>1.066,00</t>
-  </si>
-  <si>
-    <t>4.334,30</t>
-  </si>
-  <si>
-    <t>10.508,00</t>
-  </si>
-  <si>
-    <t>1.746,00</t>
-  </si>
-  <si>
-    <t>4.438,55</t>
-  </si>
-  <si>
-    <t>104,55</t>
-  </si>
-  <si>
-    <t>74,00</t>
-  </si>
-  <si>
-    <t>7,00</t>
-  </si>
-  <si>
-    <t>1.290,00</t>
-  </si>
-  <si>
-    <t>61,00</t>
-  </si>
-  <si>
-    <t>2.541,50</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>824,24</t>
-  </si>
-  <si>
-    <t>291,00</t>
-  </si>
-  <si>
-    <t>996,60</t>
-  </si>
-  <si>
-    <t>255,96</t>
-  </si>
-  <si>
-    <t>46,60</t>
-  </si>
-  <si>
-    <t>299,85</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>1.626,44</t>
-  </si>
-  <si>
-    <t>285,00</t>
-  </si>
-  <si>
-    <t>1.256,00</t>
-  </si>
-  <si>
-    <t>5.085,21</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>12.770,00</t>
-  </si>
-  <si>
-    <t>162,50</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>28,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>118,18</t>
-  </si>
-  <si>
-    <t>351,00</t>
-  </si>
-  <si>
-    <t>567,83</t>
-  </si>
-  <si>
-    <t>3.304,56</t>
-  </si>
-  <si>
-    <t>7,50</t>
-  </si>
-  <si>
-    <t>18,90</t>
-  </si>
-  <si>
-    <t>125,26</t>
-  </si>
-  <si>
-    <t>78,62</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>237,40</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>21.003,05</t>
-  </si>
-  <si>
-    <t>1.217,44</t>
-  </si>
-  <si>
-    <t>1.781,09</t>
-  </si>
-  <si>
-    <t>3.515,66</t>
-  </si>
-  <si>
-    <t>6.893,34</t>
-  </si>
-  <si>
-    <t>3.735,00</t>
-  </si>
-  <si>
-    <t>631.231,18</t>
-  </si>
-  <si>
-    <t>81.000,00</t>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>1532.00</t>
+  </si>
+  <si>
+    <t>715.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>1019.56</t>
+  </si>
+  <si>
+    <t>3485.51</t>
+  </si>
+  <si>
+    <t>14178.75</t>
+  </si>
+  <si>
+    <t>107511.21</t>
+  </si>
+  <si>
+    <t>8118.50</t>
+  </si>
+  <si>
+    <t>4884.77</t>
+  </si>
+  <si>
+    <t>1807.15</t>
+  </si>
+  <si>
+    <t>1841.25</t>
+  </si>
+  <si>
+    <t>6772.40</t>
+  </si>
+  <si>
+    <t>4514.13</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>206.00</t>
+  </si>
+  <si>
+    <t>7039.50</t>
+  </si>
+  <si>
+    <t>1365.00</t>
+  </si>
+  <si>
+    <t>376.00</t>
+  </si>
+  <si>
+    <t>189.59</t>
+  </si>
+  <si>
+    <t>33.50</t>
+  </si>
+  <si>
+    <t>1883.30</t>
+  </si>
+  <si>
+    <t>5.70</t>
+  </si>
+  <si>
+    <t>225.14</t>
+  </si>
+  <si>
+    <t>57.37</t>
+  </si>
+  <si>
+    <t>19015.76</t>
+  </si>
+  <si>
+    <t>128.56</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>2296.92</t>
+  </si>
+  <si>
+    <t>1486.44</t>
+  </si>
+  <si>
+    <t>4712.00</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>44.32</t>
+  </si>
+  <si>
+    <t>9842.23</t>
+  </si>
+  <si>
+    <t>376.44</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>2961.40</t>
+  </si>
+  <si>
+    <t>21.20</t>
+  </si>
+  <si>
+    <t>592.98</t>
+  </si>
+  <si>
+    <t>4275.31</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>3815.00</t>
+  </si>
+  <si>
+    <t>1650.00</t>
+  </si>
+  <si>
+    <t>3374.00</t>
+  </si>
+  <si>
+    <t>236.00</t>
+  </si>
+  <si>
+    <t>5765.00</t>
+  </si>
+  <si>
+    <t>116.40</t>
+  </si>
+  <si>
+    <t>1234.00</t>
+  </si>
+  <si>
+    <t>835.00</t>
+  </si>
+  <si>
+    <t>9485.80</t>
+  </si>
+  <si>
+    <t>20332.00</t>
+  </si>
+  <si>
+    <t>33496.48</t>
+  </si>
+  <si>
+    <t>10225.00</t>
+  </si>
+  <si>
+    <t>1147.10</t>
+  </si>
+  <si>
+    <t>622.00</t>
+  </si>
+  <si>
+    <t>5442.44</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>748.00</t>
+  </si>
+  <si>
+    <t>1832.96</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>753.00</t>
+  </si>
+  <si>
+    <t>217.20</t>
+  </si>
+  <si>
+    <t>1066.00</t>
+  </si>
+  <si>
+    <t>4334.30</t>
+  </si>
+  <si>
+    <t>10508.00</t>
+  </si>
+  <si>
+    <t>1746.00</t>
+  </si>
+  <si>
+    <t>4438.55</t>
+  </si>
+  <si>
+    <t>104.55</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>1290.00</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
+    <t>2541.50</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>824.24</t>
+  </si>
+  <si>
+    <t>291.00</t>
+  </si>
+  <si>
+    <t>996.60</t>
+  </si>
+  <si>
+    <t>255.96</t>
+  </si>
+  <si>
+    <t>46.60</t>
+  </si>
+  <si>
+    <t>299.85</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>1626.44</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>1256.00</t>
+  </si>
+  <si>
+    <t>5085.21</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>12770.00</t>
+  </si>
+  <si>
+    <t>162.50</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>118.18</t>
+  </si>
+  <si>
+    <t>351.00</t>
+  </si>
+  <si>
+    <t>567.83</t>
+  </si>
+  <si>
+    <t>3304.56</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>18.90</t>
+  </si>
+  <si>
+    <t>125.26</t>
+  </si>
+  <si>
+    <t>78.62</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>237.40</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>21003.05</t>
+  </si>
+  <si>
+    <t>1217.44</t>
+  </si>
+  <si>
+    <t>1781.09</t>
+  </si>
+  <si>
+    <t>3515.66</t>
+  </si>
+  <si>
+    <t>6893.34</t>
+  </si>
+  <si>
+    <t>3735.00</t>
+  </si>
+  <si>
+    <t>631231.18</t>
+  </si>
+  <si>
+    <t>81000.00</t>
   </si>
 </sst>
 </file>
